--- a/excel_templates/用户备注表.xlsx
+++ b/excel_templates/用户备注表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,72 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7cadfa57-6c2f-4ca5-bcdd-3cd934b3e364</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHO002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rtrt上高速分公司</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5ccf8498-8c75-44ec-aadb-43e8907c6468</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6666666666666666</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/用户备注表.xlsx
+++ b/excel_templates/用户备注表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +668,39 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cdf8907f-f1e4-4fbc-9ad3-4aaf03e124c4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>312312312312</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/用户备注表.xlsx
+++ b/excel_templates/用户备注表.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,283 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>备注ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>设备ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>设备名</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>备注内容</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>创建人</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>是否不当</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>REM001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CAR001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>屏幕有轻微划痕，不影响使用</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-01-08 16:30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>REM002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CAR002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>电池续航正常，约8小时</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>李四</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-01-12 11:00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>REM003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PHO001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>充电口有点松动</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>王五</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-01-11 09:15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8c6e17bd-ae50-46a5-bdb7-ee86dd97486c</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>46d518ee-2238-473d-9f24-ee5986b46517</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>出差中，未归还</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>jamorant</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-06 17:05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7cadfa57-6c2f-4ca5-bcdd-3cd934b3e364</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PHO002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>rtrt上高速分公司</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>lan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-09 09:38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5ccf8498-8c75-44ec-aadb-43e8907c6468</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6666666666666666</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>lan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-09 09:53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cdf8907f-f1e4-4fbc-9ad3-4aaf03e124c4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>312312312312</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>